--- a/publipostage/00mthsf17/liste_essais_cliniques_identifies_00mthsf17.xlsx
+++ b/publipostage/00mthsf17/liste_essais_cliniques_identifies_00mthsf17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J206"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +656,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -716,6 +746,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -758,6 +793,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -796,6 +836,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -838,6 +883,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -880,6 +930,11 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -922,6 +977,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -960,6 +1020,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -998,6 +1063,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1036,6 +1106,11 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1074,6 +1149,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1116,6 +1196,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1154,6 +1239,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1192,6 +1282,11 @@
       <c r="J19" t="b">
         <v>1</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1229,6 +1324,11 @@
       </c>
       <c r="J20" t="b">
         <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1264,6 +1364,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1302,6 +1407,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1340,6 +1450,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1378,6 +1493,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1420,6 +1540,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1458,6 +1583,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1496,6 +1626,11 @@
       <c r="J27" t="b">
         <v>1</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1538,6 +1673,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1576,6 +1716,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1618,6 +1763,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1660,6 +1810,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1698,6 +1853,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1740,6 +1900,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1777,6 +1942,11 @@
       </c>
       <c r="J34" t="b">
         <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1812,6 +1982,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1854,6 +2029,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1896,6 +2076,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1938,6 +2123,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1976,6 +2166,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2018,6 +2213,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2060,6 +2260,11 @@
       <c r="J41" t="b">
         <v>1</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2098,6 +2303,11 @@
       <c r="J42" t="b">
         <v>1</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2136,6 +2346,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2178,6 +2393,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2216,6 +2436,11 @@
       <c r="J45" t="b">
         <v>1</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2258,6 +2483,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2300,6 +2530,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2338,6 +2573,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2376,6 +2616,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2418,6 +2663,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2460,6 +2710,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2502,6 +2757,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2544,6 +2804,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2582,6 +2847,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2624,6 +2894,11 @@
       <c r="J55" t="b">
         <v>1</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2666,6 +2941,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2708,6 +2988,11 @@
       <c r="J57" t="b">
         <v>1</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2750,6 +3035,11 @@
       <c r="J58" t="b">
         <v>1</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2792,6 +3082,11 @@
       <c r="J59" t="b">
         <v>1</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2834,6 +3129,11 @@
       <c r="J60" t="b">
         <v>1</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2876,6 +3176,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2914,6 +3219,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2960,6 +3270,11 @@
       <c r="J63" t="b">
         <v>1</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3002,6 +3317,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3040,6 +3360,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3082,6 +3407,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3124,6 +3454,11 @@
       <c r="J67" t="b">
         <v>1</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3166,6 +3501,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3208,6 +3548,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3246,6 +3591,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3284,6 +3634,11 @@
       <c r="J71" t="b">
         <v>1</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3326,6 +3681,11 @@
       <c r="J72" t="b">
         <v>1</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3364,6 +3724,11 @@
       <c r="J73" t="b">
         <v>1</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3406,6 +3771,11 @@
       <c r="J74" t="b">
         <v>1</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3448,6 +3818,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3486,6 +3861,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3524,6 +3904,11 @@
       <c r="J77" t="b">
         <v>1</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3566,6 +3951,11 @@
       <c r="J78" t="b">
         <v>1</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3604,6 +3994,11 @@
       <c r="J79" t="b">
         <v>1</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3646,6 +4041,11 @@
       <c r="J80" t="b">
         <v>1</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3684,6 +4084,11 @@
       <c r="J81" t="b">
         <v>1</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3722,6 +4127,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3760,6 +4170,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3802,6 +4217,11 @@
       <c r="J84" t="b">
         <v>1</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3844,6 +4264,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3886,6 +4311,11 @@
       <c r="J86" t="b">
         <v>1</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3924,6 +4354,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3966,6 +4401,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4008,6 +4448,11 @@
       <c r="J89" t="b">
         <v>1</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4050,6 +4495,11 @@
       <c r="J90" t="b">
         <v>1</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4092,6 +4542,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4134,6 +4589,11 @@
       <c r="J92" t="b">
         <v>1</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4176,6 +4636,11 @@
       <c r="J93" t="b">
         <v>1</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4218,6 +4683,11 @@
       <c r="J94" t="b">
         <v>1</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4260,6 +4730,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4302,6 +4777,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4344,6 +4824,11 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4386,6 +4871,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4428,6 +4918,11 @@
       <c r="J99" t="b">
         <v>1</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4470,6 +4965,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4512,6 +5012,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4550,6 +5055,11 @@
       <c r="J102" t="b">
         <v>1</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4592,6 +5102,11 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4634,6 +5149,11 @@
       <c r="J104" t="b">
         <v>1</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4676,6 +5196,11 @@
       <c r="J105" t="b">
         <v>1</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4714,6 +5239,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4756,6 +5286,11 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4798,6 +5333,11 @@
       <c r="J108" t="b">
         <v>1</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4840,6 +5380,11 @@
       <c r="J109" t="b">
         <v>1</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4878,6 +5423,11 @@
       <c r="J110" t="b">
         <v>0</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4920,6 +5470,11 @@
       <c r="J111" t="b">
         <v>1</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4958,6 +5513,11 @@
       <c r="J112" t="b">
         <v>0</v>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5000,6 +5560,11 @@
       <c r="J113" t="b">
         <v>0</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5042,6 +5607,11 @@
       <c r="J114" t="b">
         <v>0</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5084,6 +5654,11 @@
       <c r="J115" t="b">
         <v>0</v>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5126,6 +5701,11 @@
       <c r="J116" t="b">
         <v>0</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5168,6 +5748,11 @@
       <c r="J117" t="b">
         <v>1</v>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5206,6 +5791,11 @@
       <c r="J118" t="b">
         <v>1</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5248,6 +5838,11 @@
       <c r="J119" t="b">
         <v>0</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5286,6 +5881,11 @@
       <c r="J120" t="b">
         <v>0</v>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5328,6 +5928,11 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5370,6 +5975,11 @@
       <c r="J122" t="b">
         <v>0</v>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5412,6 +6022,11 @@
       <c r="J123" t="b">
         <v>0</v>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5454,6 +6069,11 @@
       <c r="J124" t="b">
         <v>0</v>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5496,6 +6116,11 @@
       <c r="J125" t="b">
         <v>0</v>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5538,6 +6163,11 @@
       <c r="J126" t="b">
         <v>0</v>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5576,6 +6206,11 @@
       <c r="J127" t="b">
         <v>1</v>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5618,6 +6253,11 @@
       <c r="J128" t="b">
         <v>0</v>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5656,6 +6296,11 @@
       <c r="J129" t="b">
         <v>0</v>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5698,6 +6343,11 @@
       <c r="J130" t="b">
         <v>0</v>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5736,6 +6386,11 @@
       <c r="J131" t="b">
         <v>0</v>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5778,6 +6433,11 @@
       <c r="J132" t="b">
         <v>1</v>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5820,6 +6480,11 @@
       <c r="J133" t="b">
         <v>0</v>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5862,6 +6527,11 @@
       <c r="J134" t="b">
         <v>0</v>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5900,6 +6570,11 @@
       <c r="J135" t="b">
         <v>0</v>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5942,6 +6617,11 @@
       <c r="J136" t="b">
         <v>0</v>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5984,6 +6664,11 @@
       <c r="J137" t="b">
         <v>0</v>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6026,6 +6711,11 @@
       <c r="J138" t="b">
         <v>1</v>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6068,6 +6758,11 @@
       <c r="J139" t="b">
         <v>1</v>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6110,6 +6805,11 @@
       <c r="J140" t="b">
         <v>0</v>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6152,6 +6852,11 @@
       <c r="J141" t="b">
         <v>0</v>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6194,6 +6899,11 @@
       <c r="J142" t="b">
         <v>0</v>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6236,6 +6946,11 @@
       <c r="J143" t="b">
         <v>0</v>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6278,6 +6993,11 @@
       <c r="J144" t="b">
         <v>0</v>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6320,6 +7040,11 @@
       <c r="J145" t="b">
         <v>0</v>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6362,6 +7087,11 @@
       <c r="J146" t="b">
         <v>1</v>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6404,6 +7134,11 @@
       <c r="J147" t="b">
         <v>1</v>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6446,6 +7181,11 @@
       <c r="J148" t="b">
         <v>0</v>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6488,6 +7228,11 @@
       <c r="J149" t="b">
         <v>1</v>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6530,6 +7275,11 @@
       <c r="J150" t="b">
         <v>0</v>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6572,6 +7322,11 @@
       <c r="J151" t="b">
         <v>0</v>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6610,6 +7365,11 @@
       <c r="J152" t="b">
         <v>0</v>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6652,6 +7412,11 @@
       <c r="J153" t="b">
         <v>0</v>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6694,6 +7459,11 @@
       <c r="J154" t="b">
         <v>1</v>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6736,6 +7506,11 @@
       <c r="J155" t="b">
         <v>0</v>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6778,6 +7553,11 @@
       <c r="J156" t="b">
         <v>1</v>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6820,6 +7600,11 @@
       <c r="J157" t="b">
         <v>0</v>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6862,6 +7647,11 @@
       <c r="J158" t="b">
         <v>1</v>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6904,6 +7694,11 @@
       <c r="J159" t="b">
         <v>0</v>
       </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6946,6 +7741,11 @@
       <c r="J160" t="b">
         <v>1</v>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6987,6 +7787,11 @@
       </c>
       <c r="J161" t="b">
         <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -7033,6 +7838,7 @@
       <c r="J162" t="b">
         <v>0</v>
       </c>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7075,6 +7881,11 @@
       <c r="J163" t="b">
         <v>0</v>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7117,6 +7928,11 @@
       <c r="J164" t="b">
         <v>0</v>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7159,6 +7975,11 @@
       <c r="J165" t="b">
         <v>0</v>
       </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7201,6 +8022,11 @@
       <c r="J166" t="b">
         <v>0</v>
       </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7243,6 +8069,11 @@
       <c r="J167" t="b">
         <v>0</v>
       </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7285,6 +8116,11 @@
       <c r="J168" t="b">
         <v>0</v>
       </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7323,6 +8159,11 @@
       <c r="J169" t="b">
         <v>0</v>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7365,6 +8206,11 @@
       <c r="J170" t="b">
         <v>0</v>
       </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7407,6 +8253,11 @@
       <c r="J171" t="b">
         <v>0</v>
       </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7449,6 +8300,11 @@
       <c r="J172" t="b">
         <v>0</v>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7491,6 +8347,11 @@
       <c r="J173" t="b">
         <v>0</v>
       </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7533,6 +8394,11 @@
       <c r="J174" t="b">
         <v>0</v>
       </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7575,6 +8441,11 @@
       <c r="J175" t="b">
         <v>0</v>
       </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7617,6 +8488,11 @@
       <c r="J176" t="b">
         <v>0</v>
       </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7659,6 +8535,11 @@
       <c r="J177" t="b">
         <v>0</v>
       </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7701,6 +8582,11 @@
       <c r="J178" t="b">
         <v>0</v>
       </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7743,6 +8629,11 @@
       <c r="J179" t="b">
         <v>0</v>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7785,6 +8676,11 @@
       <c r="J180" t="b">
         <v>0</v>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7827,6 +8723,11 @@
       <c r="J181" t="b">
         <v>0</v>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7869,6 +8770,11 @@
       <c r="J182" t="b">
         <v>0</v>
       </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7911,6 +8817,11 @@
       <c r="J183" t="b">
         <v>0</v>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7953,6 +8864,11 @@
       <c r="J184" t="b">
         <v>0</v>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7995,6 +8911,11 @@
       <c r="J185" t="b">
         <v>0</v>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8037,6 +8958,11 @@
       <c r="J186" t="b">
         <v>0</v>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8079,6 +9005,11 @@
       <c r="J187" t="b">
         <v>0</v>
       </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8121,6 +9052,11 @@
       <c r="J188" t="b">
         <v>0</v>
       </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8164,6 +9100,7 @@
       <c r="J189" t="b">
         <v>0</v>
       </c>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8206,6 +9143,11 @@
       <c r="J190" t="b">
         <v>0</v>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8248,6 +9190,11 @@
       <c r="J191" t="b">
         <v>0</v>
       </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8290,6 +9237,11 @@
       <c r="J192" t="b">
         <v>0</v>
       </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8332,6 +9284,11 @@
       <c r="J193" t="b">
         <v>0</v>
       </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8374,6 +9331,11 @@
       <c r="J194" t="b">
         <v>0</v>
       </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8416,6 +9378,11 @@
       <c r="J195" t="b">
         <v>1</v>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8458,6 +9425,11 @@
       <c r="J196" t="b">
         <v>0</v>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8500,6 +9472,11 @@
       <c r="J197" t="b">
         <v>0</v>
       </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8542,6 +9519,11 @@
       <c r="J198" t="b">
         <v>0</v>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8584,6 +9566,11 @@
       <c r="J199" t="b">
         <v>0</v>
       </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8626,6 +9613,11 @@
       <c r="J200" t="b">
         <v>0</v>
       </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8664,6 +9656,11 @@
       <c r="J201" t="b">
         <v>0</v>
       </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8706,6 +9703,11 @@
       <c r="J202" t="b">
         <v>0</v>
       </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8748,6 +9750,11 @@
       <c r="J203" t="b">
         <v>0</v>
       </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8790,6 +9797,11 @@
       <c r="J204" t="b">
         <v>0</v>
       </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8832,6 +9844,11 @@
       <c r="J205" t="b">
         <v>0</v>
       </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8873,6 +9890,11 @@
       </c>
       <c r="J206" t="b">
         <v>1</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
   </sheetData>
